--- a/1_Inspectare__10__19_03/Lab01_ReviewReport.xlsx
+++ b/1_Inspectare__10__19_03/Lab01_ReviewReport.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Scoala\VVSS\1_Inspectare__10__19_03\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A3B435-BEDC-4959-A67D-CACE52201227}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21780" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
     <sheet name="Architect. Design Phase Defects" sheetId="6" r:id="rId2"/>
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -57,9 +63,6 @@
     <t>Georgescu Anca</t>
   </si>
   <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -76,19 +79,234 @@
   </si>
   <si>
     <t>Review Form. Requirements Defects</t>
+  </si>
+  <si>
+    <t>Firicesc George</t>
+  </si>
+  <si>
+    <t>Ardelean Alexandru</t>
+  </si>
+  <si>
+    <t>19.03.2019</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R03</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>"Arhitectura stratificata" nu defineste clar tipul aplicatiei</t>
+  </si>
+  <si>
+    <t>Nu se mentioneaza dispozitivele pe care trebuie sa ruleze aplicatia</t>
+  </si>
+  <si>
+    <t>Nu sunt se precizeaza utilizatorii tinta si nivelul lor de competente digitale</t>
+  </si>
+  <si>
+    <t>Ar putea fi precizate formatul documentelor text si structura lor</t>
+  </si>
+  <si>
+    <t>Ar trebui precizata versiunea de Java, respectiv framework-ul care se doreste folosit</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>Sortarea dupa varsta nu este echivalenta cu sortarea dupa CNP, acesta incepand cu o cifra diferita pentru barbati si femei</t>
+  </si>
+  <si>
+    <t>Nu este mentionat numarul de utilizatori concomitenti pe care trebuie sa ii suporte aplicatia</t>
+  </si>
+  <si>
+    <t>Nu se precizeaza volumul de date ce va trebui stocat initial</t>
+  </si>
+  <si>
+    <t>Nu sunt mentionate valori default pentru "functia didactica" si "salariu de incadrare"</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>Nu se specifica interfata aplicatiei (GUI/Console)</t>
+  </si>
+  <si>
+    <t>0, F01, F02, F03</t>
+  </si>
+  <si>
+    <t>Nu este mentionata nicio informatie referitoare la utilizatori
+Functiile nu precizeaza business problem-ul pe care ar incearca sa il rezolve</t>
+  </si>
+  <si>
+    <t>Nu exista valori default pentru date</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>DidacticFunction</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Lipseste firstName</t>
+  </si>
+  <si>
+    <t>In Requirements suntdescrise 4 functii didactice, nu 3</t>
+  </si>
+  <si>
+    <t>EmployeeController</t>
+  </si>
+  <si>
+    <t>Nu exista nicio functie de sortare</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Numele nu sugereaza faptul ca ar fi repositories in file sau in memory</t>
+  </si>
+  <si>
+    <t>EmployeeImpl si EmployeeMock</t>
+  </si>
+  <si>
+    <t>RepositoryInterface</t>
+  </si>
+  <si>
+    <t>Mostenirea e folosita in locul compozitiei</t>
+  </si>
+  <si>
+    <t>Da, MVC, Inversion of Control</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Employee.java:19</t>
+  </si>
+  <si>
+    <t>Employee.java:16</t>
+  </si>
+  <si>
+    <t>EmployeeValidator.java:11</t>
+  </si>
+  <si>
+    <t>Function e cuvant rezervat</t>
+  </si>
+  <si>
+    <t>Salary ar trebui sa fie double</t>
+  </si>
+  <si>
+    <t>Numele ar trebui sa poata contine si alte caractere cum ar fi "-"</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>DidacticFunction.java:4</t>
+  </si>
+  <si>
+    <t>ASISTENT ar trebui sa fie ASSISTANT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +353,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,65 +456,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,6 +531,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +615,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,6 +667,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,73 +859,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -666,162 +939,225 @@
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -837,73 +1173,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -917,114 +1258,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1033,7 +1428,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1042,7 +1437,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1051,7 +1446,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1060,7 +1455,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1069,15 +1464,14 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1093,74 +1487,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1174,123 +1572,183 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1299,7 +1757,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1308,7 +1766,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1317,7 +1775,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1326,7 +1784,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1335,7 +1793,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1344,7 +1802,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1353,7 +1811,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1362,15 +1820,14 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
